--- a/kb/friction-loss/piping-losses/FrictionLossTemplate.xlsx
+++ b/kb/friction-loss/piping-losses/FrictionLossTemplate.xlsx
@@ -326,12 +326,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -344,16 +344,14 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="95.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>25</v>
